--- a/documents/expansion_boards.xlsx
+++ b/documents/expansion_boards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="38400" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="38400" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>temperature</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>fan</t>
+  </si>
+  <si>
+    <t>DHT</t>
+  </si>
+  <si>
+    <t>WCS1700</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>current in mA</t>
+  </si>
+  <si>
+    <t>G3VM</t>
+  </si>
+  <si>
+    <t>Atmega 328</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>Attiny85</t>
   </si>
 </sst>
 </file>
@@ -205,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -213,6 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,20 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -519,8 +546,14 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -533,8 +566,14 @@
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -547,8 +586,10 @@
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -561,8 +602,14 @@
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -575,8 +622,20 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -589,8 +648,10 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -603,8 +664,10 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -617,8 +680,10 @@
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -631,8 +696,10 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -644,6 +711,26 @@
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
